--- a/biology/Botanique/Guadua_amplexifolia/Guadua_amplexifolia.xlsx
+++ b/biology/Botanique/Guadua_amplexifolia/Guadua_amplexifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Guadua amplexifolia est une espèce de plantes à fleurs monocotylédones de la famille des Poaceae (graminées), sous-famille des Bambusoideae, originaire des régions tropicales d'Amérique centrale. Ce sont des bambous vivaces, rhizomateux (à rhizomes courts, pachymorphes), cespiteux, de grande taille, dont les chaumes arqués ou penchés, à entrenœuds pleins, peuvent atteindre 10 à 20 mètres de haut et 60 à 100 mm de diamètre.
 Étymologie
-L'épithète spécifique, amplexifolia, est formée de deux racines latines, amplexus, -a, -um (embrassant) et folium (feuille), en référence au limbe foliaire amplexicaule[2].</t>
+L'épithète spécifique, amplexifolia, est formée de deux racines latines, amplexus, -a, -um (embrassant) et folium (feuille), en référence au limbe foliaire amplexicaule.</t>
         </is>
       </c>
     </row>
